--- a/Docs/通断控制器接口表V1.1.xlsx
+++ b/Docs/通断控制器接口表V1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="通断控制阀接口表" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
   <si>
     <t>新版通断控制阀接口表</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>PB6</t>
-  </si>
-  <si>
-    <t>×</t>
   </si>
   <si>
     <t>DATA</t>
@@ -367,7 +364,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,17 +402,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="5" tint="0.4"/>
-      <name val="新宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="新宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -426,17 +417,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -447,24 +438,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,31 +453,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,6 +493,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -532,37 +523,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,7 +555,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,205 +585,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,6 +916,74 @@
       </top>
       <bottom style="thick">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,74 +1017,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1035,10 +1025,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,137 +1037,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1230,43 +1220,31 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1620,7 +1598,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1906,7 +1884,7 @@
         <v>46</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1922,7 +1900,7 @@
         <v>47</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" ht="14.25" spans="1:6">
       <c r="A19" s="11">
@@ -1936,7 +1914,7 @@
         <v>49</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="18"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="11">
@@ -1950,13 +1928,13 @@
         <v>51</v>
       </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="18"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" ht="14.25" spans="1:6">
       <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -1974,7 +1952,7 @@
     </row>
     <row r="22" ht="14.25" spans="1:6">
       <c r="A22" s="11"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="14" t="s">
         <v>56</v>
       </c>
@@ -2018,16 +1996,16 @@
       <c r="A25" s="11">
         <v>22</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="17" t="s">
         <v>66</v>
       </c>
       <c r="F25" s="15"/>
@@ -2046,8 +2024,8 @@
         <v>68</v>
       </c>
       <c r="E26" s="12"/>
-      <c r="F26" s="22" t="s">
-        <v>69</v>
+      <c r="F26" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:6">
@@ -2056,13 +2034,13 @@
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>71</v>
-      </c>
       <c r="E27" s="12"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" ht="14.25" spans="1:6">
       <c r="A28" s="11">
@@ -2070,13 +2048,13 @@
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" ht="14.25" spans="1:6">
       <c r="A29" s="11">
@@ -2084,13 +2062,13 @@
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="E29" s="12"/>
-      <c r="F29" s="22"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" ht="14.25" spans="1:6">
       <c r="A30" s="11">
@@ -2098,26 +2076,26 @@
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="22"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" ht="14.25" spans="1:6">
       <c r="A31" s="11">
         <v>28</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="D31" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="15" t="s">
@@ -2130,10 +2108,10 @@
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="15"/>
@@ -2143,16 +2121,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2162,26 +2140,26 @@
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" ht="14.25" spans="1:6">
       <c r="A35" s="11">
         <v>32</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="D35" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="15" t="s">
@@ -2194,10 +2172,10 @@
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="15"/>
@@ -2207,16 +2185,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2226,29 +2204,29 @@
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" ht="15" spans="1:6">
+      <c r="A39" s="19">
+        <v>36</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" ht="15" spans="1:6">
-      <c r="A39" s="23">
-        <v>36</v>
-      </c>
-      <c r="B39" s="24" t="s">
+      <c r="C39" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="26" t="s">
+      <c r="E39" s="21"/>
+      <c r="F39" s="22" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2259,88 +2237,88 @@
       <c r="A41" s="3"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:6">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28" t="s">
+      <c r="A42" s="23"/>
+      <c r="B42" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="D42" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="E42" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:6">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:6">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28" t="s">
+      <c r="D43" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="E43" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:6">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:6">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28" t="s">
+      <c r="D44" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="E44" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:6">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:6">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28" t="s">
+      <c r="D45" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:6">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:6">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28" t="s">
+      <c r="D46" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="28" t="s">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:6">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:6">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>111</v>
+      <c r="D47" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="F47" s="4"/>
     </row>
